--- a/biology/Écologie/Édaphon/Édaphon.xlsx
+++ b/biology/Écologie/Édaphon/Édaphon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89daphon</t>
+          <t>Édaphon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'édaphon est l'ensemble des organismes vivant dans le sol. Ces êtres vivants, participant à la biologie ou à l'écologie du sol, peuvent être des animaux, des végétaux, des champignons, des bactéries.
 L'édaphon correspond à la biocénose du sol considéré en tant que milieu de vie ou biotope.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89daphon</t>
+          <t>Édaphon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Subdivisions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'épiédaphon désigne les populations animales demeurant à la surface du sol (espèces épiédaphiques).
 L'hémiédaphon désigne les organismes vivant dans la litière et l'horizon organique (espèces hémiédaphiques).
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89daphon</t>
+          <t>Édaphon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Composition taxinomique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce tableau est un résumé de la taxinomie des organismes présents dans le sol[1] et qui collectivement composent l'édaphon.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce tableau est un résumé de la taxinomie des organismes présents dans le sol et qui collectivement composent l'édaphon.
 </t>
         </is>
       </c>
